--- a/Part D/Pass 2.xlsx
+++ b/Part D/Pass 2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="25">
   <si>
     <t>Pass #</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Time Submitted</t>
   </si>
   <si>
-    <t>lock type/name of lock ( from pg_locks)</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -84,6 +81,27 @@
   </si>
   <si>
     <t>SIReadLock</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Owns</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>lock type</t>
+  </si>
+  <si>
+    <t>Results were more variable than the previous pass. In every case one session obtained the most locks and was able to complete, while the other was left to hang until the other session completed fully. We suspect that this is done to ensure a cascadeless schedule.</t>
   </si>
 </sst>
 </file>
@@ -145,10 +163,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -455,26 +476,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="7" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="43.33203125" customWidth="1"/>
     <col min="14" max="14" width="17.5" customWidth="1"/>
     <col min="18" max="18" width="11.5" customWidth="1"/>
     <col min="19" max="19" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -497,22 +520,25 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -526,7 +552,7 @@
         <v>0.50055555555555553</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>16521</v>
@@ -535,21 +561,27 @@
         <v>3070431</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
       <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>16521</v>
@@ -558,15 +590,18 @@
         <v>3070437</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>16521</v>
@@ -575,66 +610,78 @@
         <v>3070415</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>16521</v>
+      </c>
+      <c r="G5">
+        <v>3070423</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>16521</v>
-      </c>
-      <c r="G5">
-        <v>3070423</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>16521</v>
+      </c>
+      <c r="G6">
+        <v>3070423</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>16521</v>
-      </c>
-      <c r="G6">
-        <v>3070423</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>16521</v>
+      </c>
+      <c r="G7">
+        <v>3070423</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
         <v>16</v>
       </c>
-      <c r="F7">
-        <v>16521</v>
-      </c>
-      <c r="G7">
-        <v>3070423</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>16521</v>
@@ -643,15 +690,18 @@
         <v>3070423</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>16521</v>
@@ -660,15 +710,18 @@
         <v>3070437</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>16521</v>
@@ -677,15 +730,18 @@
         <v>3070431</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>16521</v>
@@ -694,13 +750,16 @@
         <v>3070415</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -714,7 +773,7 @@
         <v>0.50055555555555553</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>16521</v>
@@ -723,21 +782,24 @@
         <v>3070431</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
       </c>
       <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>16521</v>
@@ -746,15 +808,18 @@
         <v>3070437</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>16521</v>
@@ -763,15 +828,18 @@
         <v>3070415</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>16521</v>
@@ -780,66 +848,78 @@
         <v>3070415</v>
       </c>
       <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>16521</v>
+      </c>
+      <c r="G16">
+        <v>3070423</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>16521</v>
+      </c>
+      <c r="G17">
+        <v>3070423</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
         <v>14</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <v>16521</v>
-      </c>
-      <c r="G16">
-        <v>3070423</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>16521</v>
+      </c>
+      <c r="G18">
+        <v>3070423</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
         <v>13</v>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <v>16521</v>
-      </c>
-      <c r="G17">
-        <v>3070423</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18">
-        <v>16521</v>
-      </c>
-      <c r="G18">
-        <v>3070423</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>16521</v>
@@ -848,15 +928,18 @@
         <v>3070423</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>16521</v>
@@ -865,15 +948,18 @@
         <v>3070431</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>16521</v>
@@ -882,13 +968,16 @@
         <v>3070415</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -901,14 +990,14 @@
       <c r="D22" s="2">
         <v>0.50115740740740744</v>
       </c>
-      <c r="J22" t="b">
+      <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -922,7 +1011,7 @@
         <v>0.50115740740740744</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23">
         <v>16521</v>
@@ -931,21 +1020,24 @@
         <v>3070431</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
       </c>
       <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24">
         <v>16521</v>
@@ -954,15 +1046,18 @@
         <v>3070437</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25">
         <v>16521</v>
@@ -971,15 +1066,18 @@
         <v>3070415</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <v>16521</v>
@@ -988,66 +1086,78 @@
         <v>3070415</v>
       </c>
       <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>16521</v>
+      </c>
+      <c r="G27">
+        <v>3070423</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>16521</v>
+      </c>
+      <c r="G28">
+        <v>3070423</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
         <v>14</v>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27">
-        <v>16521</v>
-      </c>
-      <c r="G27">
-        <v>3070423</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>16521</v>
+      </c>
+      <c r="G29">
+        <v>3070423</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
         <v>13</v>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28">
-        <v>16521</v>
-      </c>
-      <c r="G28">
-        <v>3070423</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29">
-        <v>16521</v>
-      </c>
-      <c r="G29">
-        <v>3070423</v>
-      </c>
-      <c r="H29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30">
         <v>16521</v>
@@ -1056,15 +1166,18 @@
         <v>3070415</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31">
         <v>16521</v>
@@ -1073,15 +1186,18 @@
         <v>3070431</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32">
         <v>16521</v>
@@ -1090,13 +1206,16 @@
         <v>3070423</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1110,7 +1229,7 @@
         <v>0.50146990740740738</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33">
         <v>16521</v>
@@ -1119,21 +1238,24 @@
         <v>3070431</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
       </c>
       <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34">
         <v>16521</v>
@@ -1142,15 +1264,18 @@
         <v>3070437</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35">
         <v>16521</v>
@@ -1159,49 +1284,58 @@
         <v>3070415</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>16521</v>
+      </c>
+      <c r="G36">
+        <v>3070423</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s">
         <v>12</v>
       </c>
-      <c r="F36">
-        <v>16521</v>
-      </c>
-      <c r="G36">
-        <v>3070423</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>16521</v>
+      </c>
+      <c r="G37">
+        <v>3070423</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" t="s">
         <v>13</v>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37">
-        <v>16521</v>
-      </c>
-      <c r="G37">
-        <v>3070423</v>
-      </c>
-      <c r="H37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38">
         <v>16521</v>
@@ -1210,15 +1344,18 @@
         <v>3070431</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39">
         <v>16521</v>
@@ -1227,15 +1364,18 @@
         <v>3070415</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40">
         <v>16521</v>
@@ -1244,15 +1384,18 @@
         <v>3070423</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41">
         <v>16521</v>
@@ -1261,13 +1404,16 @@
         <v>3070437</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1281,7 +1427,7 @@
         <v>0.50162037037037044</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42">
         <v>16521</v>
@@ -1290,21 +1436,24 @@
         <v>3070437</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
       </c>
       <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43">
         <v>16521</v>
@@ -1313,15 +1462,18 @@
         <v>3070415</v>
       </c>
       <c r="H43" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44">
         <v>16521</v>
@@ -1330,66 +1482,78 @@
         <v>3070415</v>
       </c>
       <c r="H44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>16521</v>
+      </c>
+      <c r="G45">
+        <v>3070423</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
         <v>14</v>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45">
-        <v>16521</v>
-      </c>
-      <c r="G45">
-        <v>3070423</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>16521</v>
+      </c>
+      <c r="G46">
+        <v>3070423</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
         <v>15</v>
       </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46">
-        <v>16521</v>
-      </c>
-      <c r="G46">
-        <v>3070423</v>
-      </c>
-      <c r="H46" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E47" t="s">
+      <c r="F47">
+        <v>16521</v>
+      </c>
+      <c r="G47">
+        <v>3070423</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
         <v>16</v>
       </c>
-      <c r="F47">
-        <v>16521</v>
-      </c>
-      <c r="G47">
-        <v>3070423</v>
-      </c>
-      <c r="H47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48">
         <v>16521</v>
@@ -1398,15 +1562,18 @@
         <v>3070423</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49">
         <v>16521</v>
@@ -1415,13 +1582,16 @@
         <v>3070415</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1435,7 +1605,7 @@
         <v>0.50185185185185188</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50">
         <v>16521</v>
@@ -1444,21 +1614,24 @@
         <v>3070431</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
       </c>
       <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51">
         <v>16521</v>
@@ -1467,15 +1640,18 @@
         <v>3070437</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52">
         <v>16521</v>
@@ -1484,66 +1660,78 @@
         <v>3070415</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53">
+        <v>16521</v>
+      </c>
+      <c r="G53">
+        <v>3070423</v>
+      </c>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" t="s">
         <v>12</v>
       </c>
-      <c r="F53">
-        <v>16521</v>
-      </c>
-      <c r="G53">
-        <v>3070423</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>16521</v>
+      </c>
+      <c r="G54">
+        <v>3070423</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" t="s">
         <v>13</v>
       </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54">
-        <v>16521</v>
-      </c>
-      <c r="G54">
-        <v>3070423</v>
-      </c>
-      <c r="H54" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55">
+        <v>16521</v>
+      </c>
+      <c r="G55">
+        <v>3070423</v>
+      </c>
+      <c r="H55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" t="s">
         <v>16</v>
       </c>
-      <c r="F55">
-        <v>16521</v>
-      </c>
-      <c r="G55">
-        <v>3070423</v>
-      </c>
-      <c r="H55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F56">
         <v>16521</v>
@@ -1552,15 +1740,18 @@
         <v>3070437</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F57">
         <v>16521</v>
@@ -1569,15 +1760,18 @@
         <v>3070423</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F58">
         <v>16521</v>
@@ -1586,15 +1780,18 @@
         <v>3070415</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F59">
         <v>16521</v>
@@ -1603,13 +1800,16 @@
         <v>3070431</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1623,7 +1823,7 @@
         <v>0.50193287037037038</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60">
         <v>16521</v>
@@ -1632,21 +1832,24 @@
         <v>3070431</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
       </c>
       <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61">
         <v>16521</v>
@@ -1655,15 +1858,18 @@
         <v>3070437</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F62">
         <v>16521</v>
@@ -1672,15 +1878,18 @@
         <v>3070415</v>
       </c>
       <c r="H62" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F63">
         <v>16521</v>
@@ -1689,66 +1898,78 @@
         <v>3070415</v>
       </c>
       <c r="H63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64">
+        <v>16521</v>
+      </c>
+      <c r="G64">
+        <v>3070423</v>
+      </c>
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65">
+        <v>16521</v>
+      </c>
+      <c r="G65">
+        <v>3070423</v>
+      </c>
+      <c r="H65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" t="s">
         <v>14</v>
       </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64">
-        <v>16521</v>
-      </c>
-      <c r="G64">
-        <v>3070423</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66">
+        <v>16521</v>
+      </c>
+      <c r="G66">
+        <v>3070423</v>
+      </c>
+      <c r="H66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" t="s">
         <v>13</v>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65">
-        <v>16521</v>
-      </c>
-      <c r="G65">
-        <v>3070423</v>
-      </c>
-      <c r="H65" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66">
-        <v>16521</v>
-      </c>
-      <c r="G66">
-        <v>3070423</v>
-      </c>
-      <c r="H66" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F67">
         <v>16521</v>
@@ -1757,15 +1978,18 @@
         <v>3070423</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68">
         <v>16521</v>
@@ -1774,15 +1998,18 @@
         <v>3070415</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F69">
         <v>16521</v>
@@ -1791,13 +2018,16 @@
         <v>3070431</v>
       </c>
       <c r="H69" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -1811,7 +2041,7 @@
         <v>0.50232638888888892</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F70">
         <v>16521</v>
@@ -1820,21 +2050,24 @@
         <v>3070431</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
       </c>
       <c r="J70" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71">
         <v>16521</v>
@@ -1843,15 +2076,18 @@
         <v>3070437</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F72">
         <v>16521</v>
@@ -1860,49 +2096,58 @@
         <v>3070415</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73">
+        <v>16521</v>
+      </c>
+      <c r="G73">
+        <v>3070423</v>
+      </c>
+      <c r="H73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" t="s">
         <v>12</v>
       </c>
-      <c r="F73">
-        <v>16521</v>
-      </c>
-      <c r="G73">
-        <v>3070423</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74">
+        <v>16521</v>
+      </c>
+      <c r="G74">
+        <v>3070423</v>
+      </c>
+      <c r="H74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" t="s">
         <v>13</v>
       </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74">
-        <v>16521</v>
-      </c>
-      <c r="G74">
-        <v>3070423</v>
-      </c>
-      <c r="H74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F75">
         <v>16521</v>
@@ -1911,15 +2156,18 @@
         <v>3070437</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F76">
         <v>16521</v>
@@ -1928,15 +2176,18 @@
         <v>3070423</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F77">
         <v>16521</v>
@@ -1945,15 +2196,18 @@
         <v>3070431</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F78">
         <v>16521</v>
@@ -1962,13 +2216,16 @@
         <v>3070415</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2</v>
       </c>
@@ -1982,7 +2239,7 @@
         <v>0.50232638888888892</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F79">
         <v>16521</v>
@@ -1991,21 +2248,24 @@
         <v>3070437</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="I79" t="s">
+        <v>13</v>
       </c>
       <c r="J79" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F80">
         <v>16521</v>
@@ -2014,15 +2274,18 @@
         <v>3070415</v>
       </c>
       <c r="H80" t="s">
-        <v>15</v>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F81">
         <v>16521</v>
@@ -2031,66 +2294,78 @@
         <v>3070415</v>
       </c>
       <c r="H81" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82">
+        <v>16521</v>
+      </c>
+      <c r="G82">
+        <v>3070423</v>
+      </c>
+      <c r="H82" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" t="s">
         <v>14</v>
       </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E82" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82">
-        <v>16521</v>
-      </c>
-      <c r="G82">
-        <v>3070423</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="J82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83">
+        <v>16521</v>
+      </c>
+      <c r="G83">
+        <v>3070423</v>
+      </c>
+      <c r="H83" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
         <v>15</v>
       </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E83" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83">
-        <v>16521</v>
-      </c>
-      <c r="G83">
-        <v>3070423</v>
-      </c>
-      <c r="H83" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E84" t="s">
+      <c r="F84">
+        <v>16521</v>
+      </c>
+      <c r="G84">
+        <v>3070423</v>
+      </c>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s">
         <v>16</v>
       </c>
-      <c r="F84">
-        <v>16521</v>
-      </c>
-      <c r="G84">
-        <v>3070423</v>
-      </c>
-      <c r="H84" t="s">
-        <v>17</v>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="J84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F85">
         <v>16521</v>
@@ -2099,15 +2374,18 @@
         <v>3070423</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F86">
         <v>16521</v>
@@ -2116,9 +2394,12 @@
         <v>3070415</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
-      </c>
-      <c r="I86" t="b">
+        <v>22</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" t="b">
         <v>1</v>
       </c>
     </row>
